--- a/GUI + Reviews/202506/Review 202506/Coen/EJPP_Composition_20250618_132119.xlsx
+++ b/GUI + Reviews/202506/Review 202506/Coen/EJPP_Composition_20250618_132119.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202506/Review 202506/Coen/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_CDB5D0EF1A55FF12A92C4C8C3D6B1E2B7979188E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2361DF8E-A242-4D17-9420-A3717E4B405E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EJPP Composition" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2080,8 +2086,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2144,13 +2150,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2188,7 +2202,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2222,6 +2236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2256,9 +2271,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2431,14 +2447,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2464,7 +2492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2490,7 +2518,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2516,7 +2544,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2542,7 +2570,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +2596,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2594,7 +2622,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2620,7 +2648,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2646,7 +2674,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2672,7 +2700,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2698,7 +2726,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2724,7 +2752,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2750,7 +2778,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2776,7 +2804,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2802,7 +2830,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2828,7 +2856,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2854,7 +2882,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2880,7 +2908,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2906,7 +2934,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2932,7 +2960,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2958,7 +2986,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2984,7 +3012,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3010,7 +3038,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3036,7 +3064,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3062,7 +3090,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3088,7 +3116,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3114,7 +3142,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3140,7 +3168,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3166,7 +3194,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3192,7 +3220,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3218,7 +3246,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3244,7 +3272,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3270,7 +3298,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3296,7 +3324,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3322,7 +3350,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3348,7 +3376,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3374,7 +3402,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3400,7 +3428,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3426,7 +3454,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3452,7 +3480,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -3478,7 +3506,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3504,7 +3532,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -3530,7 +3558,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3556,7 +3584,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3582,7 +3610,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3636,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3634,7 +3662,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3660,7 +3688,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3686,7 +3714,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3712,7 +3740,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3738,7 +3766,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3764,7 +3792,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3790,7 +3818,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3816,7 +3844,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3842,7 +3870,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3868,7 +3896,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3894,7 +3922,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3920,7 +3948,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3946,7 +3974,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3972,7 +4000,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3998,7 +4026,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4024,7 +4052,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -4050,7 +4078,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -4076,7 +4104,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -4102,7 +4130,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -4128,7 +4156,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4154,7 +4182,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -4180,7 +4208,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -4206,7 +4234,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -4232,7 +4260,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -4258,7 +4286,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -4284,7 +4312,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -4310,7 +4338,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4336,7 +4364,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -4362,7 +4390,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -4388,7 +4416,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4414,7 +4442,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -4440,7 +4468,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -4466,7 +4494,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -4492,7 +4520,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4518,7 +4546,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -4544,7 +4572,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4570,7 +4598,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4596,7 +4624,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4622,7 +4650,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4648,7 +4676,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4674,7 +4702,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4700,7 +4728,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4726,7 +4754,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4752,7 +4780,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4778,7 +4806,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4804,7 +4832,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4830,7 +4858,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4856,7 +4884,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4882,7 +4910,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4908,7 +4936,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4934,7 +4962,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4960,7 +4988,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4986,7 +5014,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -5012,7 +5040,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5038,7 +5066,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5064,7 +5092,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -5078,7 +5106,7 @@
         <v>2972934800</v>
       </c>
       <c r="E102">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -5090,7 +5118,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5116,7 +5144,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -5142,7 +5170,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5168,7 +5196,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -5194,7 +5222,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -5208,7 +5236,7 @@
         <v>2000000000</v>
       </c>
       <c r="E107">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -5220,7 +5248,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -5246,7 +5274,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -5272,7 +5300,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -5298,7 +5326,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -5324,7 +5352,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -5338,7 +5366,7 @@
         <v>205288330</v>
       </c>
       <c r="E112">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -5350,7 +5378,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -5376,7 +5404,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -5402,7 +5430,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -5428,7 +5456,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -5442,7 +5470,7 @@
         <v>639172060</v>
       </c>
       <c r="E116">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -5454,7 +5482,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -5480,7 +5508,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -5506,7 +5534,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -5532,7 +5560,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -5558,7 +5586,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -5584,7 +5612,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -5610,7 +5638,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -5636,7 +5664,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -5662,7 +5690,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -5688,7 +5716,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -5714,7 +5742,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -5740,7 +5768,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -5754,7 +5782,7 @@
         <v>273600000</v>
       </c>
       <c r="E128">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -5766,7 +5794,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -5792,7 +5820,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -5818,7 +5846,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -5844,7 +5872,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -5870,7 +5898,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -5896,7 +5924,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -5922,7 +5950,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -5948,7 +5976,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -5974,7 +6002,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -6000,7 +6028,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -6026,7 +6054,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -6052,7 +6080,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -6078,7 +6106,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -6104,7 +6132,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -6130,7 +6158,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -6156,7 +6184,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -6182,7 +6210,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -6208,7 +6236,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -6234,7 +6262,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -6260,7 +6288,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -6286,7 +6314,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -6312,7 +6340,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -6338,7 +6366,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -6364,7 +6392,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6390,7 +6418,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -6416,7 +6444,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -6442,7 +6470,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -6468,7 +6496,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -6494,7 +6522,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -6520,7 +6548,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -6546,7 +6574,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -6572,7 +6600,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -6598,7 +6626,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -6624,7 +6652,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -6650,7 +6678,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -6676,7 +6704,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -6702,7 +6730,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -6728,7 +6756,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -6754,7 +6782,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -6780,7 +6808,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -6806,7 +6834,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -6832,7 +6860,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -6858,7 +6886,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -6884,7 +6912,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -6910,7 +6938,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -6936,7 +6964,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -6962,7 +6990,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -6988,7 +7016,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -7014,7 +7042,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -7040,7 +7068,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -7066,7 +7094,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -7092,7 +7120,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -7118,7 +7146,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -7144,7 +7172,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -7170,7 +7198,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -7196,7 +7224,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -7222,7 +7250,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -7248,7 +7276,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -7274,7 +7302,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -7300,7 +7328,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -7326,7 +7354,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -7352,7 +7380,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -7378,7 +7406,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -7404,7 +7432,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -7430,7 +7458,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -7456,7 +7484,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -7482,7 +7510,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -7508,7 +7536,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -7534,7 +7562,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -7560,7 +7588,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -7586,7 +7614,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -7612,7 +7640,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -7638,7 +7666,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -7664,7 +7692,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -7690,7 +7718,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -7716,7 +7744,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -7742,7 +7770,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -7768,7 +7796,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -7794,7 +7822,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -7820,7 +7848,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -7846,7 +7874,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -7872,7 +7900,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -7898,7 +7926,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -7924,7 +7952,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -7950,7 +7978,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -7976,7 +8004,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -8002,7 +8030,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -8028,7 +8056,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -8054,7 +8082,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -8080,7 +8108,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -8106,7 +8134,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -8132,7 +8160,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -8158,7 +8186,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -8184,7 +8212,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -8210,7 +8238,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -8236,7 +8264,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -8262,7 +8290,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -8288,7 +8316,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -8314,7 +8342,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -8340,7 +8368,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -8366,7 +8394,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -8392,7 +8420,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -8418,7 +8446,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -8444,7 +8472,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -8470,7 +8498,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -8496,7 +8524,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -8522,7 +8550,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -8548,7 +8576,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -8574,7 +8602,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -8600,7 +8628,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -8626,7 +8654,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -8652,7 +8680,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -8678,7 +8706,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -8704,7 +8732,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -8730,7 +8758,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -8756,7 +8784,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -8782,7 +8810,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -8808,7 +8836,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -8834,7 +8862,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -8860,7 +8888,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -8886,7 +8914,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -8912,7 +8940,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -8938,7 +8966,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -8964,7 +8992,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -8990,7 +9018,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -9016,7 +9044,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -9042,7 +9070,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -9068,7 +9096,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -9094,7 +9122,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -9120,7 +9148,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -9146,7 +9174,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -9172,7 +9200,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -9198,7 +9226,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -9224,7 +9252,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -9250,7 +9278,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -9276,7 +9304,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -9302,7 +9330,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -9328,7 +9356,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -9354,7 +9382,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -9380,7 +9408,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -9406,7 +9434,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -9432,7 +9460,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -9458,7 +9486,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -9484,7 +9512,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -9510,7 +9538,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>279</v>
       </c>
@@ -9536,7 +9564,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>280</v>
       </c>
@@ -9562,7 +9590,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>281</v>
       </c>
@@ -9588,7 +9616,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>282</v>
       </c>
@@ -9614,7 +9642,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>283</v>
       </c>
@@ -9640,7 +9668,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -9666,7 +9694,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -9692,7 +9720,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -9718,7 +9746,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -9744,7 +9772,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>288</v>
       </c>
@@ -9770,7 +9798,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -9796,7 +9824,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>290</v>
       </c>
@@ -9822,7 +9850,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>291</v>
       </c>
@@ -9848,7 +9876,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>292</v>
       </c>
@@ -9874,7 +9902,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -9900,7 +9928,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>294</v>
       </c>
@@ -9926,7 +9954,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>295</v>
       </c>
@@ -9952,7 +9980,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -9978,7 +10006,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -10004,7 +10032,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -10030,7 +10058,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -10056,7 +10084,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -10082,7 +10110,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -10108,7 +10136,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -10134,7 +10162,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -10160,7 +10188,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -10186,7 +10214,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -10212,7 +10240,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -10238,7 +10266,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -10264,7 +10292,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -10290,7 +10318,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -10316,7 +10344,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -10342,7 +10370,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>311</v>
       </c>
@@ -10368,7 +10396,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>312</v>
       </c>
@@ -10394,7 +10422,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -10420,7 +10448,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -10446,7 +10474,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>315</v>
       </c>
@@ -10472,7 +10500,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -10498,7 +10526,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -10524,7 +10552,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>318</v>
       </c>
@@ -10550,7 +10578,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>319</v>
       </c>
@@ -10576,7 +10604,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -10602,7 +10630,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>321</v>
       </c>
@@ -10628,7 +10656,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>322</v>
       </c>
@@ -10654,7 +10682,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -10680,7 +10708,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -10706,7 +10734,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>325</v>
       </c>
@@ -10732,7 +10760,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>326</v>
       </c>
@@ -10758,7 +10786,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>327</v>
       </c>
@@ -10784,7 +10812,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>328</v>
       </c>
@@ -10810,7 +10838,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>329</v>
       </c>
@@ -10836,7 +10864,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -10862,7 +10890,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -10888,7 +10916,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -10914,7 +10942,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -10940,7 +10968,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -10966,7 +10994,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>335</v>
       </c>
@@ -10992,7 +11020,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>336</v>
       </c>
@@ -11018,7 +11046,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>337</v>
       </c>
@@ -11044,7 +11072,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>338</v>
       </c>
@@ -11070,7 +11098,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>339</v>
       </c>
@@ -11096,7 +11124,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>340</v>
       </c>
@@ -11122,7 +11150,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>341</v>
       </c>
@@ -11148,7 +11176,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -11174,7 +11202,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -11200,7 +11228,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>344</v>
       </c>
@@ -11226,7 +11254,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>345</v>
       </c>
@@ -11254,5 +11282,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>